--- a/forwardprimer-v3_25.xlsx
+++ b/forwardprimer-v3_25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_25" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F2305-GATGAGATGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGAGATGGTCGTCGGCAGCGTC</t>
+    <t>F2305-TGCACTCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCACTCACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F2306-TGATGAGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGATGAGAGATCGTCGGCAGCGTC</t>
+    <t>F2306-CAACACAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACACAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F2307-GTCAAGACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCAAGACTATCGTCGGCAGCGTC</t>
+    <t>F2307-TCGTCACGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTCACGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F2308-GCATCAACAC</t>
+    <t>F2308-TTCAGCATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCAGCATCCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>F2309-GATGGACTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGGACTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>F2310-TAGCTGAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTGAACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>F2311-CGAGGTAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAGGTAGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>F2312-CTGATCAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGATCAACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>F2313-AGCAGGATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCAGGATCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>F2314-GAACTGTTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACTGTTCCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>F2315-GTCGTACTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCGTACTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>F2316-ACGTACCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTACCAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>F2317-TCGTCTTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTCTTGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>F2318-TCAAGACAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGACAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>F2319-CTACCTCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACCTCAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>F2320-AGAGAACTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGAACTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>F2321-CAGGAGAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGGAGAGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>F2322-GCTAGTGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTAGTGAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>F2323-GTGACAGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGACAGAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>F2324-AGAACCAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAACCAGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>F2325-AACACCAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACCAGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>F2326-AACTGATGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTGATGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>F2327-GGTGTCTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTGTCTGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>F2328-TGCTCAAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTCAAGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>F2329-GTGTAGGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTAGGTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>F2330-GAACAGATGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACAGATGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>F2331-TTCGTACAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGTACAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>F2332-AAGACCATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGACCATCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>F2333-GTACGTCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACGTCTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>F2334-TGACACATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACACATGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>F2335-TTGCTCCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGCTCCACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>F2336-TCTCGAAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCGAAGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>F2337-TCACAAGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACAAGAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>F2338-TCATCTCGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATCTCGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>F2339-TACGAAGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGAAGCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>F2340-GATCCTCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCCTCAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>F2341-GAACGAACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACGAACTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>F2342-GGTACACTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTACACTAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>F2343-TGACGTTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACGTTGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F2344-CTTGAGAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGAGAACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>F2345-GATCTGTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCTGTGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>F2346-CAGTTGGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTTGGAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>F2347-TACCTCCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCTCCTAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F2348-TGAGGAGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGGAGTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>F2349-ATCCTTGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCTTGACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>F2350-ACCTACTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTACTCACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>F2351-AAGCTCACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTCACCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>F2352-CTGAGAGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGAGAGCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F2353-GTTGCTCCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGCTCCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F2354-CGTGATGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTGATGTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F2355-TCGTGTGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTGTGTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F2356-ACCTGTGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTGTGAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F2357-GACTTCGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTTCGAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F2358-GCATCAACAC</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACGCATCAACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>F2309-ACTGATGAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGATGAGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>F2310-CATCAGCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCAGCTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>F2311-ATCAGTGCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCAGTGCACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>F2312-ACCTACCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTACCTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>F2313-AGAACACTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAACACTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>F2314-CATCCTAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCCTAGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>F2315-GAGTACACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTACACTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>F2316-GTCACAGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCACAGGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>F2317-ACCTTCAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTTCAGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>F2318-ATCCTCCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCTCCTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>F2319-AACGTACTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGTACTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>F2320-ATGGTCTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGTCTCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>F2321-CCAGACAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCAGACAAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>F2322-TCCTCCAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTCCAGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>F2323-GAACGTGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACGTGGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>F2324-AGTCAAGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCAAGTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>F2325-CACGAGAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACGAGAAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>F2326-ACCAACGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCAACGATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>F2327-GACCTTCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACCTTCATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>F2328-GGAGTGACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAGTGACTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>F2329-TACACCTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACACCTCGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>F2330-TCTACTACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTACTACGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>F2331-TTGAGGTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGAGGTACCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>F2332-AGACTCACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACTCACATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>F2333-GTACACATGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACACATGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>F2334-CAAGATCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGATCTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>F2335-GAAGTCGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTCGTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>F2336-CCTAGCAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTAGCAACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>F2337-CAACTCACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACTCACCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>F2338-AACTGACCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTGACCACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>F2339-TAGACCTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGACCTTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>F2340-ACCAAGTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCAAGTGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>F2341-AAGAGTCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGTCATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>F2342-CACTGATCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTGATCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>F2343-GTCAACCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCAACCTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>F2344-TAGCAGACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCAGACCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>F2345-AGTCCTACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCCTACACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>F2346-AACACCTTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACCTTGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>F2347-GATGTAGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGTAGAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>F2348-TGACAGTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACAGTCGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>F2349-ACTACTCGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTACTCGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>F2350-CATCCACACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCCACACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>F2351-ACTTCTGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTTCTGCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>F2352-AGTTGCAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTTGCAGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F2353-ATCCTTGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCTTGACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>F2354-GTTCAGACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCAGACCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F2355-CTTGAGTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGAGTCAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F2356-AGGTGTCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTGTCAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F2357-CTCTACACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTACACTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F2358-ACCTCACTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTCACTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F2359-AGATCAGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATCAGTGATCGTCGGCAGCGTC</t>
+    <t>F2359-TGGATCGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGATCGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F2360-GCATGAGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATGAGAGTTCGTCGGCAGCGTC</t>
+    <t>F2360-CTTGCACTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGCACTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F2361-GACTGAGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTGAGACTTCGTCGGCAGCGTC</t>
+    <t>F2361-ACATGAGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATGAGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F2362-TCAGTTCTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTTCTGGTCGTCGGCAGCGTC</t>
+    <t>F2362-CAACATGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACATGGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F2363-ACAAGCTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGCTCAATCGTCGGCAGCGTC</t>
+    <t>F2363-TCTCTGCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTGCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F2364-TGCAACTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCAACTCTCTCGTCGGCAGCGTC</t>
+    <t>F2364-AGACAAGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACAAGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F2365-ATCACAGAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCACAGAGGTCGTCGGCAGCGTC</t>
+    <t>F2365-ATGGATGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGATGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F2366-CTCAACACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCAACACGTTCGTCGGCAGCGTC</t>
+    <t>F2366-CAACATGACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACATGACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F2367-GGTTCACATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTTCACATCTCGTCGGCAGCGTC</t>
+    <t>F2367-ACAGAAGCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGAAGCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F2368-TGTAGTCCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTAGTCCATTCGTCGGCAGCGTC</t>
+    <t>F2368-ACAACGATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACGATCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F2369-ACATCTGGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATCTGGACTCGTCGGCAGCGTC</t>
+    <t>F2369-CTTCCACGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCCACGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F2370-AAGTGATGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGATGTGTCGTCGGCAGCGTC</t>
+    <t>F2370-TGAAGACTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGACTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F2371-CTACTACAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACTACAGCTCGTCGGCAGCGTC</t>
+    <t>F2371-ACACGTGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACGTGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F2372-CTTCGACAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCGACAGATCGTCGGCAGCGTC</t>
+    <t>F2372-ACACGATCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACGATCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F2373-AAGACATGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGACATGCTTCGTCGGCAGCGTC</t>
+    <t>F2373-ACTCTGTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCTGTGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F2374-GTCATCCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCATCCATGTCGTCGGCAGCGTC</t>
+    <t>F2374-AAGACTCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGACTCACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F2375-TGTTCACTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCACTCGTCGTCGGCAGCGTC</t>
+    <t>F2375-CTTGCTTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGCTTGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F2376-CGTCGTTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTCGTTGTATCGTCGGCAGCGTC</t>
+    <t>F2376-TGCACTACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCACTACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F2377-ACTCCATCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCCATCACTCGTCGGCAGCGTC</t>
+    <t>F2377-TACTCACTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTCACTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F2378-ACAACGTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACGTCACTCGTCGGCAGCGTC</t>
+    <t>F2378-GAAGAGCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAGCTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F2379-CTGCTAGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGCTAGTACTCGTCGGCAGCGTC</t>
+    <t>F2379-AACCATCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCATCAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F2380-AACCTTGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCTTGAAGTCGTCGGCAGCGTC</t>
+    <t>F2380-GTGTAGAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTAGAACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F2381-ACGTGCTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTGCTCATTCGTCGGCAGCGTC</t>
+    <t>F2381-AGTGCTCCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGCTCCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F2382-GGTGCAACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTGCAACATTCGTCGGCAGCGTC</t>
+    <t>F2382-TTGGAAGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGAAGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F2383-ACTGTCGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGTCGTAGTCGTCGGCAGCGTC</t>
+    <t>F2383-TGGTAGTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTAGTAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F2384-GACACTACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACACTACAGTCGTCGGCAGCGTC</t>
+    <t>F2384-GACCTTGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACCTTGGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F2385-TCGTGTGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTGTGCAATCGTCGGCAGCGTC</t>
+    <t>F2385-GACATGACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACATGACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F2386-ATCTAGTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTAGTACCTCGTCGGCAGCGTC</t>
+    <t>F2386-ACTGAACTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGAACTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F2387-TTGTCTCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCTCTCTTCGTCGGCAGCGTC</t>
+    <t>F2387-AGACTCAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACTCAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F2388-AGCTGTTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTGTTCTATCGTCGGCAGCGTC</t>
+    <t>F2388-ACAAGACTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGACTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F2389-CAGATCTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGATCTGATTCGTCGGCAGCGTC</t>
+    <t>F2389-TCATGATGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATGATGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F2390-TACACGTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACACGTACCTCGTCGGCAGCGTC</t>
+    <t>F2390-ATGTCACTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTCACTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F2391-AGTCTGTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTGTAGATCGTCGGCAGCGTC</t>
+    <t>F2391-TAGAGATGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGATGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F2392-AAGGTCAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTCAACCTCGTCGGCAGCGTC</t>
+    <t>F2392-GCAAGTCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAAGTCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F2393-GCTACGTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTACGTGAATCGTCGGCAGCGTC</t>
+    <t>F2393-TACACACATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACACACATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F2394-TGCTAGGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTAGGATCTCGTCGGCAGCGTC</t>
+    <t>F2394-GGATGATCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGATGATCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F2395-CACCACTTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACCACTTGTTCGTCGGCAGCGTC</t>
+    <t>F2395-AGAGGAAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGGAAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F2396-ATCAGCAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCAGCAAGCTCGTCGGCAGCGTC</t>
+    <t>F2396-GTAGTCAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTCAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F2397-CTTGCTGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGCTGTTCTCGTCGGCAGCGTC</t>
+    <t>F2397-ACAGGTCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGGTCTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F2398-ACCACTAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCACTAGATTCGTCGGCAGCGTC</t>
+    <t>F2398-ACATCTTGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATCTTGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F2399-GTTCATGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCATGAGATCGTCGGCAGCGTC</t>
+    <t>F2399-GTTGGAGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGGAGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F2400-GTACTAGCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACTAGCACTCGTCGGCAGCGTC</t>
+    <t>F2400-TTGACACAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGACACAGTTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
